--- a/docs/LTA1_C/LTA1_C_30.07.24v_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731792966.7049818</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731792968.9591637</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792966.7049818.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792968.9591637.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>290.53</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.150000000000034</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -591,139 +613,157 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731792969.202038</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731792969.202038.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731792969.202038.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>290.6</v>
       </c>
-      <c r="J4" t="n">
-        <v>290.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>289.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731792972.5097127</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731792972.5097127.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731792972.5097127.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.42</v>
       </c>
-      <c r="J5" t="n">
-        <v>132.42</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>132.29</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1299999999999955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731792976.4895878</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731792976.9624746</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792976.4895878.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792976.9624746.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6810</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6804.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>5.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -731,51 +771,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731792978.7219872</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731792980.6381037</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792978.7219872.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792980.6381037.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>510</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>510.85</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -783,51 +829,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731792980.7462156</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731792983.0240295</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792980.7462156.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792983.0240295.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>511.75</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>511.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -835,51 +887,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731792986.479856</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731792987.3260677</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792986.479856.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792987.3260677.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>1044.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1046</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -887,51 +945,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731792987.6226196</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731792989.570546</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792987.6226196.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792989.570546.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.56</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.38</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -939,95 +1003,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731792990.936653</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731792990.936653.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731792990.936653.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>127.34</v>
       </c>
-      <c r="J11" t="n">
-        <v>127.34</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>127.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731792991.1582348</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731792992.701092</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792991.1582348.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792992.701092.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>165.82</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>166.54</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1035,51 +1111,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731792992.9668667</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731792993.7549307</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792992.9668667.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792993.7549307.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>166.52</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>166.14</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3800000000000239</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1087,43 +1169,49 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731792994.0514376</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792994.0514376.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792994.0514376.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>165.68</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>165.68</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1131,51 +1219,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731792994.7058337</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731792995.3721592</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792994.7058337.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792995.3721592.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>51.675</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>51.57</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1049999999999969</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1183,95 +1277,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731792996.9239488</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731792996.9239488.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731792996.9239488.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>51.45</v>
       </c>
-      <c r="J16" t="n">
-        <v>51.45</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>51.37</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.0800000000000054</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731792999.2791364</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731793002.572678</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792999.2791364.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731793002.572678.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1421.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1279,95 +1385,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731793002.9584184</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731793002.9584184.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731793002.9584184.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1419.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>1419.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1420</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731793003.5097015</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731793004.6318974</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731793003.5097015.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731793004.6318974.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>60.52</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>60.66</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1399999999999935</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1375,43 +1493,49 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731793007.3946304</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731793007.3946304.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731793007.3946304.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>60.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>60.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1419,51 +1543,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731793007.9565868</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731793009.6754084</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731793007.9565868.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731793009.6754084.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>141.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>141.72</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1471,51 +1601,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731793009.801043</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731793009.9553034</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731793009.801043.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731793009.9553034.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>141.96</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>141.36</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1523,95 +1659,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731793010.3968074</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731793010.3968074.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731793010.3968074.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>140.98</v>
       </c>
-      <c r="J23" t="n">
-        <v>140.98</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>140.78</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731793013.060554</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731793013.9336894</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731793013.060554.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731793013.9336894.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>54.17</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>53.87</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1619,51 +1767,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731793014.6054537</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731793014.9315283</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731793014.6054537.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731793014.9315283.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>53.85</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>53.96</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1671,95 +1825,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731793015.2444313</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731793015.2444313.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731793015.2444313.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>53.83</v>
       </c>
-      <c r="J26" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>53.51</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.3200000000000003</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731793016.5205028</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731793019.7115538</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731793016.5205028.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731793019.7115538.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>375.35</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>374</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.350000000000023</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1767,95 +1933,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731793020.0693643</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731793020.0693643.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731793020.0693643.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>373.43</v>
       </c>
-      <c r="J28" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>371.92</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-1.509999999999991</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731793023.902489</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731793024.5426922</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731793023.902489.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731793024.5426922.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>3026.65</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>3019.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>6.849999999999909</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1863,95 +2041,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731793025.3658264</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731793025.3658264.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731793025.3658264.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>3019.45</v>
       </c>
-      <c r="J30" t="n">
-        <v>3019.45</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3018.15</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-1.299999999999727</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731793026.5825942</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731793027.7929184</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731793026.5825942.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731793027.7929184.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>34.545</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>34.595</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1959,51 +2149,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731793029.562915</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731793030.8433824</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731793029.562915.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731793030.8433824.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>34.485</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>34.535</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2011,51 +2207,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731793030.9771943</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731793031.200636</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793030.9771943.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793031.200636.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>635.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>640.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -2063,51 +2265,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731793033.6699154</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731793034.5453048</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793033.6699154.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.5453048.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>640.1</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>640.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2115,51 +2323,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731793034.5809577</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731793034.610567</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.5809577.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.610567.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>640.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>640.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2167,51 +2381,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731793034.6255271</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731793034.6536157</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.6255271.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.6536157.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>640.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>640.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2219,51 +2439,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731793034.6685753</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731793034.6968753</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.6685753.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.6968753.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>640.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>640.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2271,51 +2497,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731793034.7118354</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731793034.7395933</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.7118354.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.7395933.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>640.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>640.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2323,51 +2555,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731793034.7545526</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731793034.8213544</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.7545526.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.8213544.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>640.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>640.3</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2375,51 +2613,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731793034.8508713</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731793034.8780503</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.8508713.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.8780503.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>640.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>640.3</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.09999999999990905</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2427,51 +2671,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731793034.9065142</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731793034.9339762</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.9065142.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.9339762.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>640.3</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>640.3</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2479,51 +2729,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731793034.9760275</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731793035.0044181</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793034.9760275.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793035.0044181.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>640.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>640.3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.09999999999990905</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2531,51 +2787,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731793035.031942</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731793035.087396</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793035.031942.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731793035.087396.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>640.3</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>640.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2659,19 +2921,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4100000000000037</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1366666666666679</v>
+        <v>0.03000000000000114</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -2681,19 +2943,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.120000000000005</v>
+        <v>0.9200000000000159</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3733333333333348</v>
+        <v>0.306666666666672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="F4" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -2747,19 +3009,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.150000000000034</v>
+        <v>-0.05000000000001137</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5750000000000171</v>
+        <v>-0.02500000000000568</v>
       </c>
       <c r="E7" t="n">
-        <v>0.39</v>
+        <v>-0.02000000000000007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.19</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="8">
@@ -2813,19 +3075,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.849999999999909</v>
+        <v>5.550000000000182</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3.424999999999955</v>
+        <v>2.775000000000091</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -2835,19 +3097,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1049999999999969</v>
+        <v>0.02499999999999147</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05249999999999844</v>
+        <v>0.01249999999999574</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -2857,19 +3119,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1800000000000068</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="E12" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -2879,19 +3141,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.399999999999864</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.199999999999932</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -2901,19 +3163,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.350000000000023</v>
+        <v>-0.1599999999999682</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6750000000000114</v>
+        <v>-0.07999999999998408</v>
       </c>
       <c r="E14" t="n">
-        <v>0.36</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="F14" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15">
@@ -2967,19 +3229,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.1299999999999955</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.1299999999999955</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="18">
